--- a/ReadScripts/sentiment_sim_fail_label_fin.xlsx
+++ b/ReadScripts/sentiment_sim_fail_label_fin.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacquelineskunda/Documents/GitHub/696/Milestone2/ReadScripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E39A03A7-2D5B-CC48-9240-EFDD64FAA4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93895055-B8D2-C542-AE7F-1703F6339D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentiment_sim_fail_label" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>BILLY</t>
   </si>
@@ -75,12 +75,18 @@
   <si>
     <t>WILL</t>
   </si>
+  <si>
+    <t>Character</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,14 +223,25 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +427,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -526,6 +549,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -571,14 +729,47 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="19" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -935,1157 +1126,1187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="15"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
+    <col min="9" max="20" width="9.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="15"/>
+    <col min="22" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:21" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+    </row>
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T2" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="U2" s="16"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="4">
         <v>-0.41352856363788099</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="4">
         <v>-0.262256779351906</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F3" s="4">
         <v>-0.37219816014725898</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3" s="4">
         <v>-0.38556156590276602</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H3" s="4">
         <v>0.60060118129512996</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I3" s="4">
         <v>-0.41203714277785197</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J3" s="4">
         <v>0.129010488785198</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K3" s="4">
         <v>0.61706211147797696</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L3" s="4">
         <v>-0.28968240855771799</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M3" s="4">
         <v>-0.43413709996504102</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N3" s="4">
         <v>0.69390730859301597</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O3" s="4">
         <v>-0.449516262875859</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P3" s="4">
         <v>0.59838935292756701</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q3" s="4">
         <v>-0.41732568322515201</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R3" s="4">
         <v>-0.401005604836223</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S3" s="4">
         <v>0.61303770397153901</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T3" s="9">
         <v>0.616035166611</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="4">
         <v>-0.41352856363788099</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="4">
         <v>1.00000000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="4">
         <v>0.59180486114486397</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="4">
         <v>0.66583707679099702</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="4">
         <v>0.64283671779393403</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H4" s="4">
         <v>-0.39610395873792598</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I4" s="4">
         <v>0.61444951730534902</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J4" s="4">
         <v>0.229961957371495</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K4" s="4">
         <v>-0.33028514763203198</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L4" s="4">
         <v>0.64323049317564296</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M4" s="4">
         <v>0.57636588769500796</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N4" s="4">
         <v>-0.284033509735863</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O4" s="4">
         <v>0.62739338765324004</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P4" s="4">
         <v>-0.3616047063858</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q4" s="4">
         <v>0.73023344695393</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R4" s="4">
         <v>0.76449346850389099</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S4" s="4">
         <v>-0.44648282782870302</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T4" s="9">
         <v>-0.358758713477276</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="4">
         <v>-0.262256779351906</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="4">
         <v>0.59180486114486397</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="4">
         <v>0.56830880492901703</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G5" s="4">
         <v>0.67606180166541696</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H5" s="4">
         <v>-0.38256947463383101</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I5" s="4">
         <v>0.641031135488356</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J5" s="4">
         <v>0.28439583257989798</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K5" s="4">
         <v>-0.32839512528979098</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L5" s="4">
         <v>0.78220438569659301</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M5" s="4">
         <v>0.57343297006122895</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N5" s="4">
         <v>-0.21800263910502801</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O5" s="4">
         <v>0.56733912847648205</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P5" s="4">
         <v>-0.34097395761781901</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q5" s="4">
         <v>0.57261711289765704</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R5" s="4">
         <v>0.59812171789638402</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S5" s="4">
         <v>-0.41420210242299998</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T5" s="9">
         <v>-0.34288432903024402</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="4">
         <v>-0.37219816014725898</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="4">
         <v>0.66583707679099702</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="4">
         <v>0.56830880492901703</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="4">
         <v>0.61399475971575501</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H6" s="4">
         <v>-0.37625311749857898</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I6" s="4">
         <v>0.59302536689562102</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J6" s="4">
         <v>0.22916546649136299</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K6" s="4">
         <v>-0.33709845548078199</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L6" s="4">
         <v>0.62466370241591795</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M6" s="4">
         <v>0.56212028950335002</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N6" s="4">
         <v>-0.30546640021497001</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O6" s="4">
         <v>0.56294242636872405</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P6" s="4">
         <v>-0.34255055927207401</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q6" s="4">
         <v>0.663939232728611</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R6" s="4">
         <v>0.68649879244185497</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S6" s="4">
         <v>-0.42151872632577198</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T6" s="9">
         <v>-0.35433885198459902</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="4">
         <v>-0.38556156590276602</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="4">
         <v>0.64283671779393403</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="4">
         <v>0.67606180166541696</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="4">
         <v>0.61399475971575501</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H7" s="4">
         <v>-0.37814971458177199</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I7" s="4">
         <v>0.86678963113076901</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J7" s="4">
         <v>0.242374356816002</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K7" s="4">
         <v>-0.358738065819662</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L7" s="4">
         <v>0.67139919107378998</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M7" s="4">
         <v>0.68306333822968202</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N7" s="4">
         <v>-0.28248237787958802</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O7" s="4">
         <v>0.72653113279997605</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P7" s="4">
         <v>-0.33910248380738101</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q7" s="4">
         <v>0.63663403139681196</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R7" s="4">
         <v>0.69406898016563501</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S7" s="4">
         <v>-0.43677629611882302</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T7" s="9">
         <v>-0.35790048856651102</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="4">
         <v>0.60060118129512996</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="4">
         <v>-0.39610395873792598</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="4">
         <v>-0.38256947463383101</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="4">
         <v>-0.37625311749857898</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="4">
         <v>-0.37814971458177199</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="4">
         <v>-0.37777826066235398</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="4">
         <v>9.0106935334087392E-3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="4">
         <v>0.63959360322439496</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L8" s="4">
         <v>-0.363732252447863</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M8" s="4">
         <v>-0.42624456798635701</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N8" s="4">
         <v>0.67370418396881504</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O8" s="4">
         <v>-0.43769628659968601</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P8" s="4">
         <v>0.77938166499250305</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q8" s="4">
         <v>-0.40123147545919702</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R8" s="4">
         <v>-0.356153998986943</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S8" s="4">
         <v>0.64788545808347597</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T8" s="9">
         <v>0.61917369672852296</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C9" s="4">
         <v>-0.41203714277785197</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="4">
         <v>0.61444951730534902</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="4">
         <v>0.641031135488356</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="4">
         <v>0.59302536689562102</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="4">
         <v>0.86678963113076901</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H9" s="4">
         <v>-0.37777826066235398</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="4">
         <v>0.236339139686112</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="4">
         <v>-0.37540623566356701</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L9" s="4">
         <v>0.63791012814225301</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M9" s="4">
         <v>0.64957366886773604</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N9" s="4">
         <v>-0.32240093677623799</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O9" s="4">
         <v>0.69642813203664</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P9" s="4">
         <v>-0.35052928647287201</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q9" s="4">
         <v>0.62252353631502</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R9" s="4">
         <v>0.67147140969807695</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S9" s="4">
         <v>-0.44292120934345403</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T9" s="9">
         <v>-0.38146112568631302</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C10" s="4">
         <v>0.129010488785198</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="4">
         <v>0.229961957371495</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="4">
         <v>0.28439583257989798</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="4">
         <v>0.22916546649136299</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="4">
         <v>0.242374356816002</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H10" s="4">
         <v>9.0106935334087392E-3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I10" s="4">
         <v>0.236339139686112</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="4">
         <v>0.999999999999999</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="4">
         <v>5.0331458333289199E-3</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L10" s="4">
         <v>0.28946783418852201</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M10" s="4">
         <v>0.206634447376253</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N10" s="4">
         <v>8.0535417599836498E-2</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O10" s="4">
         <v>0.18774456982044699</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P10" s="4">
         <v>2.10504428845559E-2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q10" s="4">
         <v>0.23388444353028301</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R10" s="4">
         <v>0.25719985018876101</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S10" s="4">
         <v>-3.0793728994256499E-2</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T10" s="9">
         <v>1.4881571408953799E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C11" s="4">
         <v>0.61706211147797696</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D11" s="4">
         <v>-0.33028514763203198</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E11" s="4">
         <v>-0.32839512528979098</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F11" s="4">
         <v>-0.33709845548078199</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G11" s="4">
         <v>-0.358738065819662</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H11" s="4">
         <v>0.63959360322439496</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I11" s="4">
         <v>-0.37540623566356701</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J11" s="4">
         <v>5.0331458333289199E-3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K11" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L11" s="4">
         <v>-0.27665701483042399</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M11" s="4">
         <v>-0.42348089885804802</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N11" s="4">
         <v>0.72389053666713998</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O11" s="4">
         <v>-0.41677090515583998</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P11" s="4">
         <v>0.65150864184784996</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q11" s="4">
         <v>-0.36672710523721502</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R11" s="4">
         <v>-0.33225662004576301</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S11" s="4">
         <v>0.55950046919999796</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T11" s="9">
         <v>0.64941142783914396</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C12" s="4">
         <v>-0.28968240855771799</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D12" s="4">
         <v>0.64323049317564296</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E12" s="4">
         <v>0.78220438569659301</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F12" s="4">
         <v>0.62466370241591795</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G12" s="4">
         <v>0.67139919107378998</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H12" s="4">
         <v>-0.363732252447863</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I12" s="4">
         <v>0.63791012814225301</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J12" s="4">
         <v>0.28946783418852201</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K12" s="4">
         <v>-0.27665701483042399</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L12" s="4">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M12" s="4">
         <v>0.57854894540048396</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N12" s="4">
         <v>-0.18574626569723601</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O12" s="4">
         <v>0.57108386491446905</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P12" s="4">
         <v>-0.31350733840866502</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q12" s="4">
         <v>0.62160281963403496</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R12" s="4">
         <v>0.65555205303759201</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S12" s="4">
         <v>-0.40642941332436899</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T12" s="9">
         <v>-0.29795889073593401</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C13" s="4">
         <v>-0.43413709996504102</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D13" s="4">
         <v>0.57636588769500796</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E13" s="4">
         <v>0.57343297006122895</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F13" s="4">
         <v>0.56212028950335002</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G13" s="4">
         <v>0.68306333822968202</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H13" s="4">
         <v>-0.42624456798635701</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I13" s="4">
         <v>0.64957366886773604</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J13" s="4">
         <v>0.206634447376253</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K13" s="4">
         <v>-0.42348089885804802</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L13" s="4">
         <v>0.57854894540048396</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M13" s="4">
         <v>1</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N13" s="4">
         <v>-0.39568364662887401</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O13" s="4">
         <v>0.60648257928737404</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P13" s="4">
         <v>-0.40213713118703498</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q13" s="4">
         <v>0.56777890014997601</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R13" s="4">
         <v>0.60846220105930005</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S13" s="4">
         <v>-0.461724833687362</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T13" s="9">
         <v>-0.419999111390568</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C14" s="4">
         <v>0.69390730859301597</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D14" s="4">
         <v>-0.284033509735863</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E14" s="4">
         <v>-0.21800263910502801</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F14" s="4">
         <v>-0.30546640021497001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G14" s="4">
         <v>-0.28248237787958802</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H14" s="4">
         <v>0.67370418396881504</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I14" s="4">
         <v>-0.32240093677623799</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J14" s="4">
         <v>8.0535417599836498E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K14" s="4">
         <v>0.72389053666713998</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L14" s="4">
         <v>-0.18574626569723601</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M14" s="4">
         <v>-0.39568364662887401</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N14" s="4">
         <v>1</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O14" s="4">
         <v>-0.39300988774006401</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P14" s="4">
         <v>0.684886545732172</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q14" s="4">
         <v>-0.341412134084422</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R14" s="4">
         <v>-0.28337638409700899</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S14" s="4">
         <v>0.58231803815406702</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T14" s="9">
         <v>0.739368494918762</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C15" s="4">
         <v>-0.449516262875859</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D15" s="4">
         <v>0.62739338765324004</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E15" s="4">
         <v>0.56733912847648205</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F15" s="4">
         <v>0.56294242636872405</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G15" s="4">
         <v>0.72653113279997605</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H15" s="4">
         <v>-0.43769628659968601</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I15" s="4">
         <v>0.69642813203664</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J15" s="4">
         <v>0.18774456982044699</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K15" s="4">
         <v>-0.41677090515583998</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L15" s="4">
         <v>0.57108386491446905</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M15" s="4">
         <v>0.60648257928737404</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N15" s="4">
         <v>-0.39300988774006401</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O15" s="4">
         <v>0.999999999999997</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P15" s="4">
         <v>-0.409962677038541</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q15" s="4">
         <v>0.57717759120229495</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R15" s="4">
         <v>0.60604813329336604</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S15" s="4">
         <v>-0.46726541938638999</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T15" s="9">
         <v>-0.42958130722473697</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C16" s="4">
         <v>0.59838935292756701</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D16" s="4">
         <v>-0.3616047063858</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E16" s="4">
         <v>-0.34097395761781901</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F16" s="4">
         <v>-0.34255055927207401</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G16" s="4">
         <v>-0.33910248380738101</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H16" s="4">
         <v>0.77938166499250305</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I16" s="4">
         <v>-0.35052928647287201</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J16" s="4">
         <v>2.10504428845559E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K16" s="4">
         <v>0.65150864184784996</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L16" s="4">
         <v>-0.31350733840866502</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M16" s="4">
         <v>-0.40213713118703498</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N16" s="4">
         <v>0.684886545732172</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O16" s="4">
         <v>-0.409962677038541</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P16" s="4">
         <v>0.999999999999994</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q16" s="4">
         <v>-0.36603078722242399</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R16" s="4">
         <v>-0.32114084724649</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S16" s="4">
         <v>0.67308296376926702</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T16" s="9">
         <v>0.62714930177876904</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C17" s="4">
         <v>-0.41732568322515201</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D17" s="4">
         <v>0.73023344695393</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E17" s="4">
         <v>0.57261711289765704</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F17" s="4">
         <v>0.663939232728611</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G17" s="4">
         <v>0.63663403139681196</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H17" s="4">
         <v>-0.40123147545919702</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I17" s="4">
         <v>0.62252353631502</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J17" s="4">
         <v>0.23388444353028301</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K17" s="4">
         <v>-0.36672710523721502</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L17" s="4">
         <v>0.62160281963403496</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M17" s="4">
         <v>0.56777890014997601</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N17" s="4">
         <v>-0.341412134084422</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O17" s="4">
         <v>0.57717759120229495</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P17" s="4">
         <v>-0.36603078722242399</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q17" s="4">
         <v>0.99999999999999001</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R17" s="4">
         <v>0.81073786512614199</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S17" s="4">
         <v>-0.44838003466827903</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T17" s="9">
         <v>-0.37886835558647203</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C18" s="4">
         <v>-0.401005604836223</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D18" s="4">
         <v>0.76449346850389099</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E18" s="4">
         <v>0.59812171789638402</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F18" s="4">
         <v>0.68649879244185497</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G18" s="4">
         <v>0.69406898016563501</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H18" s="4">
         <v>-0.356153998986943</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I18" s="4">
         <v>0.67147140969807695</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J18" s="4">
         <v>0.25719985018876101</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K18" s="4">
         <v>-0.33225662004576301</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L18" s="4">
         <v>0.65555205303759201</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M18" s="4">
         <v>0.60846220105930005</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N18" s="4">
         <v>-0.28337638409700899</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O18" s="4">
         <v>0.60604813329336604</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P18" s="4">
         <v>-0.32114084724649</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q18" s="4">
         <v>0.81073786512614199</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R18" s="4">
         <v>0.999999999999995</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S18" s="4">
         <v>-0.43745485109804599</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T18" s="9">
         <v>-0.33835339454564001</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C19" s="4">
         <v>0.61303770397153901</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D19" s="4">
         <v>-0.44648282782870302</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E19" s="4">
         <v>-0.41420210242299998</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F19" s="4">
         <v>-0.42151872632577198</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G19" s="4">
         <v>-0.43677629611882302</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H19" s="4">
         <v>0.64788545808347597</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I19" s="4">
         <v>-0.44292120934345403</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J19" s="4">
         <v>-3.0793728994256499E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K19" s="4">
         <v>0.55950046919999796</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L19" s="4">
         <v>-0.40642941332436899</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M19" s="4">
         <v>-0.461724833687362</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N19" s="4">
         <v>0.58231803815406702</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O19" s="4">
         <v>-0.46726541938638999</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P19" s="4">
         <v>0.67308296376926702</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q19" s="4">
         <v>-0.44838003466827903</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R19" s="4">
         <v>-0.43745485109804599</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S19" s="4">
         <v>0.999999999999998</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T19" s="9">
         <v>0.559903418799232</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C20" s="11">
         <v>0.616035166611</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D20" s="11">
         <v>-0.358758713477276</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E20" s="11">
         <v>-0.34288432903024402</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F20" s="11">
         <v>-0.35433885198459902</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G20" s="11">
         <v>-0.35790048856651102</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H20" s="11">
         <v>0.61917369672852296</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I20" s="11">
         <v>-0.38146112568631302</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J20" s="11">
         <v>1.4881571408953799E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K20" s="11">
         <v>0.64941142783914396</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L20" s="11">
         <v>-0.29795889073593401</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M20" s="11">
         <v>-0.419999111390568</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N20" s="11">
         <v>0.739368494918762</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O20" s="11">
         <v>-0.42958130722473697</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P20" s="11">
         <v>0.62714930177876904</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q20" s="11">
         <v>-0.37886835558647203</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R20" s="11">
         <v>-0.33835339454564001</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S20" s="11">
         <v>0.559903418799232</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T20" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+    <row r="21" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
